--- a/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
@@ -3281,7 +3281,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">7:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3367,7 +3367,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>CONTACT IS ASAAD-THE BUYER</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3406,7 +3406,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>MILWAUKEE VAPOR</t>
+          <t>UPTOWN PANTRY - KENOSHA</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3441,7 +3441,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>3470 N OAKLAND AVE</t>
+          <t>6119 22ND AVE</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3476,7 +3476,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/wwu4upr3gzq8iguB7</t>
+          <t>https://maps.app.goo.gl/e61UcPGEwR68Z7Jt6</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>

--- a/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
@@ -3547,7 +3547,8 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Altima, Equip</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>

--- a/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">

--- a/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
@@ -3406,7 +3406,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>UPTOWN PANTRY - KENOSHA</t>
+          <t>UPTOWN PANTRY, KENOSHA</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>

--- a/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,23 +540,51 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -571,19 +599,43 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -606,11 +658,23 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bags 5,6 SB 10</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -628,11 +692,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -641,7 +701,11 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -656,11 +720,7 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -668,43 +728,23 @@
           <t> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -713,7 +753,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -725,7 +765,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -733,7 +773,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -741,7 +781,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -749,7 +789,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -757,7 +797,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -768,15 +808,19 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,7 +828,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -792,7 +836,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -800,7 +844,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -808,7 +852,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -819,7 +863,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -827,7 +871,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -835,7 +879,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -843,7 +887,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -851,7 +895,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -859,7 +903,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -870,7 +914,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #265, KIEL</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -878,7 +922,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -886,7 +930,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -894,7 +938,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -902,7 +946,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -910,7 +954,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -921,7 +965,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>80 E PARK AVE</t>
+          <t>PIGGLY WIGGLY #265, KIEL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -929,7 +973,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -937,7 +981,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -945,7 +989,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -953,7 +997,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -961,7 +1005,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -972,7 +1016,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qVVbXbSua7m</t>
+          <t>80 E PARK AVE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -980,7 +1024,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -988,7 +1032,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -996,7 +1040,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1004,7 +1048,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1012,7 +1056,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -1021,13 +1065,17 @@
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/qVVbXbSua7m</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1035,7 +1083,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1043,7 +1091,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1051,7 +1099,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -1059,7 +1107,7 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1067,26 +1115,14 @@
       <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1094,7 +1130,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1102,7 +1138,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1110,7 +1146,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1118,7 +1154,7 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1128,20 +1164,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1149,7 +1189,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1157,7 +1197,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1165,7 +1205,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1173,7 +1213,7 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1183,25 +1223,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1209,7 +1244,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1217,7 +1252,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1225,7 +1260,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1233,7 +1268,7 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1243,20 +1278,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1264,7 +1304,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1272,17 +1312,25 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
@@ -1290,24 +1338,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1315,7 +1359,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1323,54 +1367,30 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1382,7 +1402,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1390,7 +1410,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1398,42 +1418,40 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1442,12 +1460,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1459,7 +1477,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1467,7 +1485,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1475,30 +1493,56 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1510,7 +1554,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1518,13 +1562,17 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1540,12 +1588,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1555,96 +1603,84 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1652,7 +1688,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1666,37 +1702,44 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1704,7 +1747,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>DENNIS OWNS THIS STORE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1718,20 +1761,25 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1743,7 +1791,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 26 HOWARDS GROVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1751,7 +1799,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>PLYMOUTH CLARK</t>
+          <t>DENNIS OWNS THIS STORE</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1763,26 +1811,34 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>220 N WISCONSIN DR</t>
+          <t>DHILLON'S STATION 26 HOWARDS GROVE</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1790,7 +1846,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>1403 EASTERN AVE</t>
+          <t>PLYMOUTH CLARK</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1806,26 +1862,14 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1833,7 +1877,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8Yb9mTahQpte986L6</t>
+          <t>220 N WISCONSIN DR</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1841,7 +1885,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/yMLSzE7sW3Qx2F4V7</t>
+          <t>1403 EASTERN AVE</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1854,39 +1898,47 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DC5-ITEM  LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8Yb9mTahQpte986L6</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/yMLSzE7sW3Qx2F4V7</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -1899,19 +1951,19 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -1919,43 +1971,18 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, ASHIPPUN</t>
+          <t>DC5-ITEM  LEVEL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -1967,52 +1994,61 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>N649 STATE RD 67</t>
+          <t>DHILLON'S BP, ASHIPPUN</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Altima, Equip</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2026,7 +2062,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2038,26 +2074,42 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ma91pJMETDK2</t>
+          <t>N649 STATE RD 67</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2069,31 +2121,31 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1620 W US HWY 14</t>
+          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ma91pJMETDK2</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2112,7 +2164,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
+          <t>1620 W US HWY 14</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2120,38 +2172,29 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry, Equip</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Lexi</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>6:15 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2162,30 +2205,35 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Camry, Equip</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -2196,7 +2244,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t xml:space="preserve">7:00 AM START </t>
+          <t>6:15 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2208,54 +2256,42 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>2:30 PM START</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">7:00 AM START </t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2269,37 +2305,36 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>W346 LUEDTKE LANE</t>
+          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2307,7 +2342,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Paid Google Meet Efficiency Workshop</t>
+          <t>2:30 PM START</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2315,7 +2350,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>DARIEN CORNER MART</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2329,32 +2364,45 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
+          <t>W346 LUEDTKE LANE</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://meet.google.com/tdf-pdcy-uzm</t>
+          <t>Paid Google Meet Efficiency Workshop</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2362,7 +2410,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>101 W BELOIT ST</t>
+          <t>DARIEN CORNER MART</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2376,18 +2424,22 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2397,7 +2449,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Use the link to access the meeting</t>
+          <t>https://meet.google.com/tdf-pdcy-uzm</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2405,7 +2457,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/KFZ4J9kvdm4zrJEe9</t>
+          <t>101 W BELOIT ST</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2419,51 +2471,38 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>COURTESY MEET</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Please plan to be on the call about 10 minutes prior to the start</t>
+          <t>Use the link to access the meeting</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/KFZ4J9kvdm4zrJEe9</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2475,61 +2514,52 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Altima, Equip</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>COURTESY MEET</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Please plan to be on the call about 10 minutes prior to the start</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima,
-Equip</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2538,53 +2568,63 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Greg</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima,
+Equip</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2599,12 +2639,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2612,25 +2652,33 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2641,33 +2689,37 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Justin Learned</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2686,7 +2738,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2698,29 +2750,25 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1185 N PORT WASHINGTON RD</t>
+          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2733,35 +2781,31 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION HUSTIS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
+          <t>1185 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2769,7 +2813,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2784,7 +2828,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>326 W JUNEAU ST</t>
+          <t>DHILLON'S STATION HUSTIS</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2792,7 +2836,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2800,25 +2844,29 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Let Jake know if you are not planning on using the meet</t>
+          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -2831,7 +2879,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2MvPuCPioicrHiKc6</t>
+          <t>326 W JUNEAU ST</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2839,23 +2887,27 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Let Jake know if you are not planning on using the meet</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -2872,42 +2924,33 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/2MvPuCPioicrHiKc6</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION IXONIA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van, Equip</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -2923,50 +2966,43 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>W1168 AMERICAN ST HWY 16</t>
+          <t>DHILLON'S STATION IXONIA</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -2984,48 +3020,48 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
+          <t>W1168 AMERICAN ST HWY 16</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3043,12 +3079,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3058,29 +3094,33 @@
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3098,12 +3138,12 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3112,43 +3152,30 @@
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3166,12 +3193,12 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3182,28 +3209,41 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3219,18 +3259,30 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3241,12 +3293,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3268,32 +3320,28 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3310,33 +3358,37 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t xml:space="preserve">7:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3355,7 +3407,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3367,13 +3419,21 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3390,23 +3450,19 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>UPTOWN PANTRY, KENOSHA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3427,13 +3483,17 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3441,17 +3501,13 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>6119 22ND AVE</t>
+          <t>UPTOWN PANTRY, KENOSHA</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3470,13 +3526,17 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/e61UcPGEwR68Z7Jt6</t>
+          <t>6119 22ND AVE</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3484,7 +3544,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3509,11 +3569,19 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/e61UcPGEwR68Z7Jt6</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3535,22 +3603,9 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3577,15 +3632,20 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3610,8 +3670,16 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -3665,11 +3733,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -3698,7 +3762,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3713,6 +3777,37 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
@@ -569,7 +569,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -577,7 +581,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
@@ -585,7 +593,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -628,7 +640,11 @@
           <t xml:space="preserve">Ian </t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 11</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -636,7 +652,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -675,7 +695,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -706,7 +730,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>

--- a/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3790,7 +3790,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3821,7 +3821,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -3836,6 +3836,429 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>DHILLON'S BP, IRON RIDGE</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>210 W PLEASANT ST</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/qwc1LRfmy572</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Sante Fe</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
@@ -3148,7 +3148,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3409,16 +3409,8 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3452,16 +3444,8 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3496,7 +3480,11 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3535,7 +3523,11 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3570,11 +3562,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3605,11 +3593,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>

--- a/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Milwaukee Schedule.xlsx
@@ -2071,7 +2071,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
